--- a/CardManageApi/テーブル定義書.xlsx
+++ b/CardManageApi/テーブル定義書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\white\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceTree\CardManageApi\CardManageApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05AA7A13-161B-43F0-92E9-33A61B425A26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D61A10A-C848-4EC4-A830-3831F9DB2AF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2EFCB8A-F8B4-4323-B5C5-3311B7F9261C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -239,10 +239,6 @@
   </si>
   <si>
     <t>NUMBER(9,0)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(2)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -393,6 +389,14 @@
   </si>
   <si>
     <t>カードマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(2)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -424,12 +428,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -461,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +486,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,8 +1136,9 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>削る方が良い気配</a:t>
+            <a:t>削るべきか否か・・・</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1442,20 +1459,20 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1591,7 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1586,9 +1603,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74AE4AD-B5FF-45E3-95FB-818DF5B6E2FD}">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1680,20 +1699,39 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
-        <v>51</v>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA83939C-DDF8-4D5D-8EAB-57756A8AD77B}">
   <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1771,28 +1811,28 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
@@ -1810,7 +1850,9 @@
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1824,7 +1866,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -1848,7 +1890,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1878,12 +1920,12 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1935,10 +1977,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
@@ -1990,10 +2032,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>27</v>
@@ -2003,7 +2045,7 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.45">
@@ -2011,20 +2053,20 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -2032,13 +2074,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2049,13 +2091,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
